--- a/biology/Botanique/Chrysosplenium_oppositifolium/Chrysosplenium_oppositifolium.xlsx
+++ b/biology/Botanique/Chrysosplenium_oppositifolium/Chrysosplenium_oppositifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dorine à feuilles opposées (Chrysosplenium oppositifolium) est une espèce végétale appartenant au genre Chrysosplenium et à la famille des Saxifragaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses principales différences avec Chrysosplenium alternifolium sont ses feuilles opposées : elles se font face 2 par 2 le long de la tige, d'où son nom de "oppositifolium" et sa plus petite taille, maximum 15 cm de hauteur.
 </t>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois humides de la moitié est de la France, depuis le Calvados, le Massif Central et les Pyrénées Orientales
-[2].
+.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dorine à feuilles opposées est une plante protégée en Centre-Val de Loire.
 </t>
